--- a/biology/Zoologie/Faucon_bérigora/Faucon_bérigora.xlsx
+++ b/biology/Zoologie/Faucon_bérigora/Faucon_bérigora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faucon_b%C3%A9rigora</t>
+          <t>Faucon_bérigora</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco berigora
 Le faucon bérigora (Falco berigora) est une espèce d'oiseaux de proie de la famille des Falconidae. Le terme bérigora dérive de l'ancien nom aborigène donné à cet oiseau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faucon_b%C3%A9rigora</t>
+          <t>Faucon_bérigora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faucon bérigora est de couleur variable : certains sujets sont entièrement bruns, d'autres bruns dessus et blanchâtres dessous, avec ou sans marques foncées.
 Il diffère des autres faucons par ses ailes plus larges et ses pattes plus longues.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faucon_b%C3%A9rigora</t>
+          <t>Faucon_bérigora</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce d'Australie et de Nouvelle-Guinée se rencontre dans tous les milieux à l'exception des forêts, mais préfère les savanes, prairies et terres cultivées. On le trouve aussi dans les déserts en plaine et jusqu'à 3 000 m d'altitude en Nouvelle-Guinée.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faucon_b%C3%A9rigora</t>
+          <t>Faucon_bérigora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime alimentaire
-Il se nourrit d'arthropodes et de petits vertébrés, et chasse soit en vol, soit à l'affût.
-Reproduction
-Le faucon bérigora utilise habituellement de vieux nids d'autres oiseaux pour se reproduire.
-Implication dans les feux de brousse
-En Australie, il a été observé que les faucons bérigora favorisent l'extension des feux de brousse en emportant des brindilles enflammées dans des zones encore intactes[1].
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit d'arthropodes et de petits vertébrés, et chasse soit en vol, soit à l'affût.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faucon_bérigora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucon_b%C3%A9rigora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faucon bérigora utilise habituellement de vieux nids d'autres oiseaux pour se reproduire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faucon_bérigora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faucon_b%C3%A9rigora</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Implication dans les feux de brousse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Australie, il a été observé que les faucons bérigora favorisent l'extension des feux de brousse en emportant des brindilles enflammées dans des zones encore intactes.
 </t>
         </is>
       </c>
